--- a/data/trans_bre/P16A07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,72</t>
+          <t>1,06; 5,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,13</t>
+          <t>-2,0; 3,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,55</t>
+          <t>0,5; 5,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,58</t>
+          <t>-0,66; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 2001,99</t>
+          <t>34,81; 2055,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-67,26; 255,57</t>
+          <t>-68,32; 280,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 1068,22</t>
+          <t>-5,23; 1254,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 192,93</t>
+          <t>-21,26; 224,77</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,83</t>
+          <t>2,18; 8,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,96</t>
+          <t>-1,71; 4,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,95</t>
+          <t>-0,27; 3,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,61</t>
+          <t>0,59; 5,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,9; 931,13</t>
+          <t>58,68; 986,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 249,34</t>
+          <t>-45,69; 242,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 739,18</t>
+          <t>-28,89; 737,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 324,91</t>
+          <t>5,85; 292,84</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,73</t>
+          <t>1,08; 9,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 10,15</t>
+          <t>2,03; 10,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 13,82</t>
+          <t>3,49; 14,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 11,56</t>
+          <t>2,57; 11,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,64; 567,86</t>
+          <t>24,22; 534,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,91; 333,21</t>
+          <t>30,42; 297,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,82; 658,54</t>
+          <t>83,39; 684,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,13; 889,06</t>
+          <t>42,87; 915,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,31</t>
+          <t>2,31; 6,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,3</t>
+          <t>1,65; 6,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,77</t>
+          <t>0,93; 4,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,98</t>
+          <t>-0,79; 5,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,34; 394,28</t>
+          <t>91,0; 405,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,22; 212,13</t>
+          <t>32,39; 215,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 256,83</t>
+          <t>22,25; 262,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 157,54</t>
+          <t>-16,99; 158,66</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,57</t>
+          <t>1,58; 7,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 12,94</t>
+          <t>7,13; 12,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,02</t>
+          <t>5,91; 11,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,68</t>
+          <t>1,68; 7,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 354,4</t>
+          <t>22,84; 360,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>184,43; 837,95</t>
+          <t>178,12; 803,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>152,75; 577,98</t>
+          <t>147,01; 595,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,39; 271,47</t>
+          <t>30,29; 268,41</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,35</t>
+          <t>0,55; 5,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,3</t>
+          <t>6,44; 10,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,55</t>
+          <t>4,36; 8,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,84</t>
+          <t>3,43; 7,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,97; 360,6</t>
+          <t>3,6; 339,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>125,55; 2579,31</t>
+          <t>109,38; 2355,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,17; 991,66</t>
+          <t>58,41; 866,79</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,23</t>
+          <t>3,31; 5,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,41</t>
+          <t>4,12; 6,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,92</t>
+          <t>3,85; 5,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,99</t>
+          <t>2,57; 5,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>128,16; 288,13</t>
+          <t>128,26; 302,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>116,33; 245,04</t>
+          <t>112,42; 242,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>151,37; 335,81</t>
+          <t>147,78; 326,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,5; 184,3</t>
+          <t>69,45; 198,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
